--- a/PayrollProject/templates/CourtOrderPAEO1971FineInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderPAEO1971FineInputSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\Provar\NewPeopleXCDPayroll\PayrollProject\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF62E6E0-1191-4FBF-B607-CEE2CF56C409}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705BAF8C-4E9B-438A-86BF-204C9EAE09BC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" firstSheet="1" activeTab="1" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="October2018PayPeriod" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
   <si>
     <t>EmpName</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>DO NOT TOUCH AUTMN PAEO1971Fine 2ndReprt</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH PAEOFineOct</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH PAEOFineNov</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH PAEOFineDec</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH PAEOFineJan</t>
   </si>
 </sst>
 </file>
@@ -143,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -164,6 +176,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656F5891-C399-4E72-BDAD-0F4BF0D31C04}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -554,24 +569,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9D326-24C3-49F9-A6BB-B9862FE77EE5}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="48.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -613,14 +629,17 @@
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="/alohaRedirect/a0m1q000000f8HTAAY" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/one/one.app - /alohaRedirect/a0m1q000000f8HTAAY" xr:uid="{C770ECE1-E3D6-42D4-B630-C91BAB883CD1}"/>
-    <hyperlink ref="G2" r:id="rId2" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{20D0B501-1BF3-450B-A6C3-EAAB745159C5}"/>
+    <hyperlink ref="H2" r:id="rId2" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{20D0B501-1BF3-450B-A6C3-EAAB745159C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -628,10 +647,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FB080A-92DF-4846-AF59-D028CA8F2A66}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,10 +661,11 @@
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="34.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="47.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
+    <col min="8" max="8" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -687,14 +707,17 @@
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="/alohaRedirect/a0m1q000000f8HTAAY" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/one/one.app - /alohaRedirect/a0m1q000000f8HTAAY" xr:uid="{CCE70A46-5CD1-4887-AA5C-C08F1F644203}"/>
-    <hyperlink ref="G2" r:id="rId2" tooltip="DO NOT TOUCH AUTMN PAEO1971Fine 2ndReprt" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JjN1EAK/view?queryScope=userFolders" xr:uid="{AE4BB5C7-3CBE-4709-B705-65C5E2B59BB1}"/>
+    <hyperlink ref="H2" r:id="rId2" tooltip="DO NOT TOUCH AUTMN PAEO1971Fine 2ndReprt" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JjN1EAK/view?queryScope=userFolders" xr:uid="{AE4BB5C7-3CBE-4709-B705-65C5E2B59BB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -703,24 +726,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F0D33A-5E32-4612-B798-7FBD2BFD601E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="65" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -762,14 +786,17 @@
       <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="/alohaRedirect/a0m1q000000f8HTAAY" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/one/one.app - /alohaRedirect/a0m1q000000f8HTAAY" xr:uid="{65A4D251-DDB7-4408-B71F-DD6F187D77D8}"/>
-    <hyperlink ref="G2" r:id="rId2" tooltip="DO NOT TOUCH AUTMN PAEO1971Fine 2ndReprt" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JjN1EAK/view?queryScope=userFolders" xr:uid="{56208E04-C95D-4C67-88FA-1020447ED122}"/>
+    <hyperlink ref="H2" r:id="rId2" tooltip="DO NOT TOUCH AUTMN PAEO1971Fine 2ndReprt" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JjN1EAK/view?queryScope=userFolders" xr:uid="{56208E04-C95D-4C67-88FA-1020447ED122}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PayrollProject/templates/CourtOrderPAEO1971FineInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderPAEO1971FineInputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705BAF8C-4E9B-438A-86BF-204C9EAE09BC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997E44DF-CD66-4DFE-87D0-C94FEB6AE794}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="October2018PayPeriod" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656F5891-C399-4E72-BDAD-0F4BF0D31C04}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9D326-24C3-49F9-A6BB-B9862FE77EE5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PayrollProject/templates/CourtOrderPAEO1971FineInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderPAEO1971FineInputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997E44DF-CD66-4DFE-87D0-C94FEB6AE794}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738CE77-38B2-4823-BA58-A08B02D169EE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="630" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="1890" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="October2018PayPeriod" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>EmpName</t>
   </si>
@@ -80,15 +80,6 @@
     <t>PAEO1971fine_Payroll</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTMN PAEOFine</t>
-  </si>
-  <si>
-    <t>January-2019</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTMN PAEO1971Fine 2ndReprt</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH PAEOFineOct</t>
   </si>
   <si>
@@ -99,6 +90,9 @@
   </si>
   <si>
     <t>DO NOT TOUCH PAEOFineJan</t>
+  </si>
+  <si>
+    <t>January-2020</t>
   </si>
 </sst>
 </file>
@@ -496,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656F5891-C399-4E72-BDAD-0F4BF0D31C04}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -554,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -571,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9D326-24C3-49F9-A6BB-B9862FE77EE5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -630,16 +624,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H2" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="/alohaRedirect/a0m1q000000f8HTAAY" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/one/one.app - /alohaRedirect/a0m1q000000f8HTAAY" xr:uid="{C770ECE1-E3D6-42D4-B630-C91BAB883CD1}"/>
-    <hyperlink ref="H2" r:id="rId2" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{20D0B501-1BF3-450B-A6C3-EAAB745159C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -650,7 +641,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,19 +699,16 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="H2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="/alohaRedirect/a0m1q000000f8HTAAY" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/one/one.app - /alohaRedirect/a0m1q000000f8HTAAY" xr:uid="{CCE70A46-5CD1-4887-AA5C-C08F1F644203}"/>
-    <hyperlink ref="H2" r:id="rId2" tooltip="DO NOT TOUCH AUTMN PAEO1971Fine 2ndReprt" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JjN1EAK/view?queryScope=userFolders" xr:uid="{AE4BB5C7-3CBE-4709-B705-65C5E2B59BB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -728,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F0D33A-5E32-4612-B798-7FBD2BFD601E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -784,19 +772,16 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="/alohaRedirect/a0m1q000000f8HTAAY" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/one/one.app - /alohaRedirect/a0m1q000000f8HTAAY" xr:uid="{65A4D251-DDB7-4408-B71F-DD6F187D77D8}"/>
-    <hyperlink ref="H2" r:id="rId2" tooltip="DO NOT TOUCH AUTMN PAEO1971Fine 2ndReprt" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JjN1EAK/view?queryScope=userFolders" xr:uid="{56208E04-C95D-4C67-88FA-1020447ED122}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
